--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GitHub\ConditionalAccessDocumentation\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E16419-AEC6-453D-B634-9954746EDB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC1BFA-7022-4707-BDC4-C9AAF73EA426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49553F92-0A43-4BEB-9577-D901F8BCAFBE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{49553F92-0A43-4BEB-9577-D901F8BCAFBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>State</t>
   </si>
@@ -140,20 +140,10 @@
 domainJoinedDevice</t>
   </si>
   <si>
-    <t>TEST -  Base protection - Register security information: Require trusted device or location For internal users</t>
-  </si>
-  <si>
     <t>GuestsOrExternalUsers</t>
   </si>
   <si>
     <t>urn:user:registersecurityinfo</t>
-  </si>
-  <si>
-    <t>TEST -  Attack surface reduction - All apps: Block access When using active sync</t>
-  </si>
-  <si>
-    <t>easSupported_x000D_
-easUnsupported</t>
   </si>
   <si>
     <t>TEST -  Attack surface reduction - All apps: Block access When using unknown or unsupported device platforms</t>
@@ -224,6 +214,23 @@
   </si>
   <si>
     <t>AND</t>
+  </si>
+  <si>
+    <t>TEST -  Attack surface reduction - All apps: Block legacy protocols</t>
+  </si>
+  <si>
+    <t>other
+easSupported
+easUnsupported</t>
+  </si>
+  <si>
+    <t>TEST -  Base protection - Register security information: Require trusted device or location</t>
+  </si>
+  <si>
+    <t>AllTrusted</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
 </sst>
 </file>
@@ -293,13 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -320,6 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,6 +348,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -396,6 +412,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -454,6 +476,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -512,6 +540,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -687,8 +721,8 @@
     <tableColumn id="2" xr3:uid="{6F282EE5-4714-4EE6-BEDC-80A5C751AED0}" name="TEST -  Admin protection - All apps: Require MFA For M365 admins" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{FFF86F21-C85A-4309-B38F-9F4B355A73CB}" name="TEST -  Admin protection - All apps: Require trusted device For M365 admins" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{DCF0FB7A-A2E5-4D3C-9E36-89029835CE61}" name="TEST -  Base protection - All apps: Require MFA or trusted device or trusted location" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{FBF58D6D-8960-4421-AD43-45111257DCD1}" name="TEST -  Base protection - Register security information: Require trusted device or location For internal users" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{D3F87F13-8B46-4057-B211-67AAFB91D640}" name="TEST -  Attack surface reduction - All apps: Block access When using active sync" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{FBF58D6D-8960-4421-AD43-45111257DCD1}" name="TEST -  Base protection - Register security information: Require trusted device or location" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{D3F87F13-8B46-4057-B211-67AAFB91D640}" name="TEST -  Attack surface reduction - All apps: Block legacy protocols" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{417C4172-FD80-4AB8-86D0-9FABE95D550F}" name="TEST -  Attack surface reduction - All apps: Block access When using unknown or unsupported device platforms" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{F72ABE6F-16AB-4A78-90A3-697744E3A61B}" name="TEST -  Data protection - All apps: No persistent browser session When on untrusted device" dataDxfId="3"/>
     <tableColumn id="17" xr3:uid="{F29F9C67-7E08-4C8B-A999-0F73D4C0D0FC}" name="TEST -  Data protection - O365: Require app protection policy When using modern authentication clients on iOS or Android" dataDxfId="2"/>
@@ -1002,604 +1036,604 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
-    <col min="2" max="11" width="31.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="31.59765625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="31.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>57</v>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>56</v>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>43</v>
+      <c r="H20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7" t="b">
-        <v>1</v>
+      <c r="H26" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>44</v>
+      <c r="H27" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -1616,6 +1650,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D062ECCC5D160F49A7CFD6617B38F6D9" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b125fc0605fb65554479a022e31f328">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1052f7c5-a065-46de-96c3-2a8b96041ced" xmlns:ns4="120bd2db-b13a-443c-acb0-8f4a7a7ba594" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8af3eb3d61fde2a1c5fc7f846847daca" ns3:_="" ns4:_="">
     <xsd:import namespace="1052f7c5-a065-46de-96c3-2a8b96041ced"/>
@@ -1832,22 +1881,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA627BCC-30AB-4671-A806-E1DFEF125C7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1052f7c5-a065-46de-96c3-2a8b96041ced"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="120bd2db-b13a-443c-acb0-8f4a7a7ba594"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29B178D-48DE-4538-8B92-99A84E8ED39D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33484F8A-CFF4-416A-8D27-EF2C1C4CC0F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1864,29 +1923,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29B178D-48DE-4538-8B92-99A84E8ED39D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA627BCC-30AB-4671-A806-E1DFEF125C7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1052f7c5-a065-46de-96c3-2a8b96041ced"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="120bd2db-b13a-443c-acb0-8f4a7a7ba594"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>